--- a/laravel-quiz/resources/excel1/3.xlsx
+++ b/laravel-quiz/resources/excel1/3.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="82">
   <si>
     <t>Nosná kategória</t>
   </si>
@@ -280,13 +280,7 @@
     <t>NICORETTE GUM 2 MG 105 (classic gum)</t>
   </si>
   <si>
-    <t>Nosná kategória CELKEM</t>
-  </si>
-  <si>
     <t>Kategória zažívanie</t>
-  </si>
-  <si>
-    <t>Nosní dekongestanty bez mořských vod</t>
   </si>
 </sst>
 </file>
@@ -334,7 +328,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -393,27 +387,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -424,15 +406,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -440,7 +413,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +752,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -781,440 +760,428 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
       <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
       <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
       <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
       <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>83</v>
-      </c>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
       <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
       <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
       <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
       <c r="B26" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
       <c r="B27" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
       <c r="B28" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="3" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
+      <c r="A46" s="9"/>
       <c r="B46" s="3" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
+      <c r="A47" s="9"/>
       <c r="B47" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
+      <c r="A48" s="9"/>
       <c r="B48" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
+      <c r="A51" s="9"/>
       <c r="B51" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
+      <c r="A52" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="B52" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="A53" s="7"/>
       <c r="B53" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
+      <c r="A54" s="7"/>
       <c r="B54" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
+      <c r="A55" s="7"/>
       <c r="B55" s="3" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
+      <c r="A56" s="7"/>
       <c r="B56" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
+      <c r="A57" s="7"/>
       <c r="B57" s="3" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
+      <c r="A58" s="7"/>
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
+      <c r="A59" s="7"/>
       <c r="B59" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
+      <c r="A60" s="7"/>
       <c r="B60" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
+      <c r="A61" s="7"/>
       <c r="B61" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
+      <c r="A62" s="7"/>
       <c r="B62" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
+      <c r="A63" s="7"/>
       <c r="B63" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
+      <c r="A64" s="7"/>
       <c r="B64" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
+      <c r="A65" s="7"/>
       <c r="B65" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
+      <c r="A66" s="7"/>
       <c r="B66" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
+      <c r="A67" s="7"/>
       <c r="B67" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
+      <c r="A68" s="7"/>
       <c r="B68" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
+      <c r="A69" s="7"/>
       <c r="B69" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
+      <c r="A70" s="7"/>
       <c r="B70" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" s="3" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A53:A71"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A30:A52"/>
-    <mergeCell ref="A1:A22"/>
+  <mergeCells count="3">
+    <mergeCell ref="A52:A70"/>
+    <mergeCell ref="A29:A51"/>
+    <mergeCell ref="A1:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -1242,562 +1209,562 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="A34" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" s="6" t="s">
+      <c r="A37" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="6" t="s">
+      <c r="A38" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="6" t="s">
+      <c r="A40" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="6" t="s">
+      <c r="A41" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="6" t="s">
+      <c r="A42" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="6" t="s">
+      <c r="A43" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="6" t="s">
+      <c r="A44" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" s="6" t="s">
+      <c r="A45" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46" s="6" t="s">
+      <c r="A46" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" s="6" t="s">
+      <c r="A47" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="6" t="s">
+      <c r="A48" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" s="6" t="s">
+      <c r="A49" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" s="6" t="s">
+      <c r="A50" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B51" s="6" t="s">
+      <c r="A51" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="6" t="s">
+      <c r="A52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" s="6" t="s">
+      <c r="A53" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" s="6" t="s">
+      <c r="A54" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="6" t="s">
+      <c r="A55" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B56" s="6" t="s">
+      <c r="A56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57" s="6" t="s">
+      <c r="A57" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" s="6" t="s">
+      <c r="A58" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" s="6" t="s">
+      <c r="A59" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" s="6" t="s">
+      <c r="A60" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B61" s="6" t="s">
+      <c r="A61" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B62" s="6" t="s">
+      <c r="A62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B63" s="6" t="s">
+      <c r="A63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B64" s="6" t="s">
+      <c r="A64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B65" s="6" t="s">
+      <c r="A65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" s="6" t="s">
+      <c r="A66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B67" s="6" t="s">
+      <c r="A67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B68" s="6" t="s">
+      <c r="A68" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B69" s="6" t="s">
+      <c r="A69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B70" s="6" t="s">
+      <c r="A70" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>62</v>
       </c>
     </row>
